--- a/biology/Zoologie/Colibri_hirondelle/Colibri_hirondelle.xlsx
+++ b/biology/Zoologie/Colibri_hirondelle/Colibri_hirondelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupetomena macroura
 Le Colibri hirondelle (Eupetomena macroura) est une espèce de colibris (famille des Trochilidae).
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans le centre/est de l'Amérique du Sud.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau habite les forêts tropicales et subtropicales sèches et les savanes sèches mais aussi les anciennes forêts fortement dégradées.
 Très territorial et agressif, il peut attaquer les autres colibris de la région et même des guêpes et des abeilles.
@@ -575,9 +591,11 @@
           <t>Sous-espèces et synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Alan P. Peterson[1], cet oiseau est représenté par 5 sous-espèces :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Alan P. Peterson, cet oiseau est représenté par 5 sous-espèces :
 Eupetomena macroura boliviana Zimmer, 1950 ;
 Eupetomena macroura cyanoviridis Grantsau, 1988 ;
 Eupetomena macroura hirundo Gould, 1875 ;
